--- a/teaching/traditional_assets/database/data/ivory_coast/ivory_coast_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/ivory_coast/ivory_coast_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,28 +591,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.157</v>
+        <v>0.169</v>
       </c>
       <c r="E2">
-        <v>0.161</v>
+        <v>0.14</v>
       </c>
       <c r="G2">
-        <v>0.3658658658658658</v>
+        <v>0.2690626517727052</v>
       </c>
       <c r="H2">
-        <v>0.3658658658658658</v>
+        <v>0.2690626517727052</v>
       </c>
       <c r="I2">
-        <v>0.3548548548548549</v>
+        <v>0.2611299983810911</v>
       </c>
       <c r="J2">
-        <v>0.2917799955358216</v>
+        <v>0.2259874100803443</v>
       </c>
       <c r="K2">
-        <v>125.2</v>
+        <v>184</v>
       </c>
       <c r="L2">
-        <v>0.3133133133133132</v>
+        <v>0.2978792293993848</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,55 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>663.1999999999999</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.5932552106628499</v>
+      </c>
+      <c r="W2">
+        <v>0.3298521823434459</v>
       </c>
       <c r="X2">
-        <v>0.07044118391432332</v>
+        <v>0.05680993890095423</v>
+      </c>
+      <c r="Y2">
+        <v>0.2730422434424917</v>
       </c>
       <c r="Z2">
-        <v>1.133938706015891</v>
+        <v>1.104408336074836</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05868072381895394</v>
+        <v>0.0539982098105608</v>
+      </c>
+      <c r="AC2">
+        <v>-0.04978686389103863</v>
       </c>
       <c r="AD2">
-        <v>294.6</v>
+        <v>411.003</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>294.6</v>
+        <v>411.003</v>
       </c>
       <c r="AG2">
-        <v>294.6</v>
+        <v>-252.1969999999999</v>
       </c>
       <c r="AH2">
-        <v>0.3115152796870043</v>
+        <v>0.2688221554931869</v>
       </c>
       <c r="AI2">
-        <v>0.6638125281658405</v>
+        <v>0.3299365900218592</v>
       </c>
       <c r="AJ2">
-        <v>0.3115152796870043</v>
+        <v>-0.2913204644086943</v>
       </c>
       <c r="AK2">
-        <v>0.6638125281658405</v>
+        <v>-0.432953993369991</v>
       </c>
       <c r="AL2">
-        <v>44.3</v>
+        <v>57.4</v>
       </c>
       <c r="AM2">
-        <v>44.3</v>
+        <v>57.4</v>
+      </c>
+      <c r="AN2">
+        <v>2.325993208828523</v>
       </c>
       <c r="AO2">
-        <v>3.200902934537246</v>
+        <v>2.810104529616725</v>
+      </c>
+      <c r="AP2">
+        <v>-1.427260894170911</v>
       </c>
       <c r="AQ2">
-        <v>3.200902934537246</v>
+        <v>2.810104529616725</v>
       </c>
     </row>
     <row r="3">
@@ -704,28 +722,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.157</v>
+        <v>0.169</v>
       </c>
       <c r="E3">
-        <v>0.161</v>
+        <v>0.14</v>
       </c>
       <c r="G3">
-        <v>0.5046599930963065</v>
+        <v>0.4934679334916864</v>
       </c>
       <c r="H3">
-        <v>0.5046599930963065</v>
+        <v>0.4934679334916864</v>
       </c>
       <c r="I3">
-        <v>0.4894718674490853</v>
+        <v>0.4789192399049881</v>
       </c>
       <c r="J3">
-        <v>0.4015397458824272</v>
+        <v>0.4004835262403947</v>
       </c>
       <c r="K3">
-        <v>79.09999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="L3">
-        <v>0.2730410769761822</v>
+        <v>0.2577197149643705</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,46 +767,58 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>500.9</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.066425377900788</v>
       </c>
       <c r="X3">
-        <v>0.05435802518732603</v>
+        <v>0.06185898255388222</v>
       </c>
       <c r="AB3">
-        <v>0.05435802518732603</v>
+        <v>0.05705564459784086</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>210.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>210.6</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-290.3</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.309569307658386</v>
+      </c>
+      <c r="AI3">
+        <v>0.3522328148519819</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-1.618171683389074</v>
+      </c>
+      <c r="AK3">
+        <v>-2.992783505154637</v>
       </c>
       <c r="AL3">
-        <v>44.3</v>
+        <v>57.4</v>
       </c>
       <c r="AM3">
-        <v>44.3</v>
+        <v>57.4</v>
+      </c>
+      <c r="AN3">
+        <v>1.191850594227504</v>
       </c>
       <c r="AO3">
-        <v>3.200902934537246</v>
+        <v>2.810104529616725</v>
+      </c>
+      <c r="AP3">
+        <v>-1.642897566496887</v>
       </c>
       <c r="AQ3">
-        <v>3.200902934537246</v>
+        <v>2.810104529616725</v>
       </c>
     </row>
     <row r="4">
@@ -799,108 +829,334 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Bank of Africa - Côte D'ivoire (BRVM:BOAC)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>25.7</v>
+      </c>
+      <c r="L4">
+        <v>0.4269102990033222</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>-0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>-0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>87.3</v>
+      </c>
+      <c r="V4">
+        <v>0.6367614879649891</v>
+      </c>
+      <c r="W4">
+        <v>0.3257287705956907</v>
+      </c>
+      <c r="X4">
+        <v>0.04863300287183572</v>
+      </c>
+      <c r="Y4">
+        <v>0.277095767723855</v>
+      </c>
+      <c r="Z4">
+        <v>4.892717815344603</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.04863295275879653</v>
+      </c>
+      <c r="AC4">
+        <v>-0.04863295275879653</v>
+      </c>
+      <c r="AD4">
+        <v>0.003</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.003</v>
+      </c>
+      <c r="AG4">
+        <v>-87.297</v>
+      </c>
+      <c r="AH4">
+        <v>2.188135927003786e-05</v>
+      </c>
+      <c r="AI4">
+        <v>3.271430596599893e-05</v>
+      </c>
+      <c r="AJ4">
+        <v>-1.752846214083489</v>
+      </c>
+      <c r="AK4">
+        <v>-19.82670906200315</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NSIA Banque Société Anonyme (BRVM:NSBC)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>19.5</v>
+      </c>
+      <c r="L5">
+        <v>0.1900584795321638</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>-0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>-0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.1311365164761265</v>
+      </c>
+      <c r="X5">
+        <v>0.05176089524802623</v>
+      </c>
+      <c r="Y5">
+        <v>0.07937562122810023</v>
+      </c>
+      <c r="Z5">
+        <v>0.5354906054279749</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.05094077502328073</v>
+      </c>
+      <c r="AC5">
+        <v>-0.05094077502328073</v>
+      </c>
+      <c r="AD5">
+        <v>27.5</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>27.5</v>
+      </c>
+      <c r="AG5">
+        <v>27.5</v>
+      </c>
+      <c r="AH5">
+        <v>0.09588563458856346</v>
+      </c>
+      <c r="AI5">
+        <v>0.1355347461803844</v>
+      </c>
+      <c r="AJ5">
+        <v>0.09588563458856346</v>
+      </c>
+      <c r="AK5">
+        <v>0.1355347461803844</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Société Ivoirienne de Banque S.A. (BRVM:SIBC)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>46.1</v>
-      </c>
-      <c r="L4">
-        <v>0.4194722474977252</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>-0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>-0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0.3384728340675477</v>
-      </c>
-      <c r="X4">
-        <v>0.0865243426413206</v>
-      </c>
-      <c r="Y4">
-        <v>0.2519484914262272</v>
-      </c>
-      <c r="Z4">
-        <v>0.3118615209988649</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.06300342245058184</v>
-      </c>
-      <c r="AC4">
-        <v>-0.06300342245058184</v>
-      </c>
-      <c r="AD4">
-        <v>294.6</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>294.6</v>
-      </c>
-      <c r="AG4">
-        <v>294.6</v>
-      </c>
-      <c r="AH4">
-        <v>0.5495243424734192</v>
-      </c>
-      <c r="AI4">
-        <v>0.6638125281658405</v>
-      </c>
-      <c r="AJ4">
-        <v>0.5495243424734192</v>
-      </c>
-      <c r="AK4">
-        <v>0.6638125281658405</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>52</v>
+      </c>
+      <c r="L6">
+        <v>0.4403048264182896</v>
+      </c>
+      <c r="M6">
+        <v>-0</v>
+      </c>
+      <c r="N6">
+        <v>-0</v>
+      </c>
+      <c r="O6">
+        <v>-0</v>
+      </c>
+      <c r="P6">
+        <v>-0</v>
+      </c>
+      <c r="Q6">
+        <v>-0</v>
+      </c>
+      <c r="R6">
+        <v>-0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>75</v>
+      </c>
+      <c r="V6">
+        <v>0.2978554408260524</v>
+      </c>
+      <c r="W6">
+        <v>0.333975594091201</v>
+      </c>
+      <c r="X6">
+        <v>0.068888209011538</v>
+      </c>
+      <c r="Y6">
+        <v>0.265087385079663</v>
+      </c>
+      <c r="Z6">
+        <v>0.3323016319639843</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.0597097218708334</v>
+      </c>
+      <c r="AC6">
+        <v>-0.0597097218708334</v>
+      </c>
+      <c r="AD6">
+        <v>172.9</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>172.9</v>
+      </c>
+      <c r="AG6">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.4071109018130445</v>
+      </c>
+      <c r="AI6">
+        <v>0.489524348810872</v>
+      </c>
+      <c r="AJ6">
+        <v>0.2799542464969974</v>
+      </c>
+      <c r="AK6">
+        <v>0.3519051042415528</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>0</v>
       </c>
     </row>
